--- a/biology/Histoire de la zoologie et de la botanique/Werner_Carl_August_Bokermann/Werner_Carl_August_Bokermann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Werner_Carl_August_Bokermann/Werner_Carl_August_Bokermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Werner Carl August Bokermann (Werner Carlos Augusto Bokermann) est un herpétologiste et ornithologue brésilien d'origine allemande né le 4 juillet 1929 à Botucatu et mort le 1er mai 1995 à São Paulo.
 Il soutient une thèse sur le Tinamou solitaire, Tinamus solitarius à l'Université de São Paulo en 1991 mais se consacre principalement à l'étude des anoures.
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cochranella bokermanni Taylor &amp; Cochran, 1953
 Dendropsophus bokermanni (Goin, 1960)
@@ -556,7 +570,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Allobates goianus (Bokermann, 1975)
@@ -657,7 +673,9 @@
           <t>Référence biographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Alvarenga, 1995 : In memoriam: Werner C. A.. Bokermann. Ararajuba, vol. 3, p. 101-102.
 Santos, 1995 : In memoriam: Werner C. A.. Bokermann. Boletim CEO, no 12, p. 2-19. (texte original)
